--- a/flask/data/admin_users.xlsx
+++ b/flask/data/admin_users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Rishan</t>
+  </si>
+  <si>
+    <t>rishangupta857@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$MDh6i4G7pSXpI7at$46bd5c5cac3202059b697604e75ff03acc9ed1db328f6e12ec42079df876c77fb1429d8c7999e80d4da398501f50dfdf90764d8934a129b84fc28a836bfad6b4</t>
   </si>
 </sst>
 </file>
@@ -380,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,6 +406,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
